--- a/public/static/excell/sainfo-plantilla-ventas.xlsx
+++ b/public/static/excell/sainfo-plantilla-ventas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xamppp\htdocs\sainfo\public\static\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sainfo2\public\static\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE9E49B-31C1-4511-8529-D802B405436F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E56E2C-32C1-487D-A9A9-F809D25C1978}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ventas_cab" sheetId="16" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
   <si>
     <t>B</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>* Si el item no es gravada, este valor no afecta en nada.</t>
+  </si>
+  <si>
+    <t>CLIENTE_DIRECCION</t>
   </si>
 </sst>
 </file>
@@ -707,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,18 +722,19 @@
     <col min="3" max="3" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.7109375" customWidth="1"/>
     <col min="5" max="5" width="36.28515625" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" customWidth="1"/>
-    <col min="11" max="11" width="122" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.5703125" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" customWidth="1"/>
+    <col min="12" max="12" width="122" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="20" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -747,34 +751,37 @@
         <v>20</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -790,35 +797,36 @@
       <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>3.33</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="J2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>3.33</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>9</v>
       </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -834,35 +842,36 @@
       <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>3.4</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="J3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>3.4</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>20</v>
       </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -878,35 +887,36 @@
       <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>3.41</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="J4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>3.41</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>17</v>
       </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -922,35 +932,36 @@
       <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>3.33</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="J5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <v>3.33</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>30</v>
       </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -966,35 +977,36 @@
       <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>3.5</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="J6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <v>3.5</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <v>18</v>
       </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1010,35 +1022,36 @@
       <c r="E7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>3.33</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="J7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <v>3.33</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>9</v>
       </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1054,35 +1067,36 @@
       <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3.33</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="J8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3.33</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1098,35 +1112,36 @@
       <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3.33</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="J9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3.33</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1142,36 +1157,37 @@
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3.35</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="J10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3.35</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>92</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N11" s="3"/>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
